--- a/Tesis/Formato Plan de tutorías.xlsx
+++ b/Tesis/Formato Plan de tutorías.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maestria de Sofware\Maestria-de-Sofware\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158A23FC-3846-4656-890D-DAE45CAEAAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743B986A-3162-426F-BD65-111BF9F92196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>UNIVERSIDAD TÉCNICA DE MACHALA</t>
   </si>
@@ -68,30 +68,9 @@
     <t>EVIDENCIA</t>
   </si>
   <si>
-    <t>Nombre del estudiante</t>
-  </si>
-  <si>
-    <t>Nombre del tutor</t>
-  </si>
-  <si>
-    <t>Nombre del cotutor</t>
-  </si>
-  <si>
     <t>Cohorte: Segunda</t>
   </si>
   <si>
-    <t>Fecha actual: 07-11-2021</t>
-  </si>
-  <si>
-    <t>Ing. Jimmy Fernando Castillo Crespín</t>
-  </si>
-  <si>
-    <t>ING. DIXYS HERNÁNDEZ, PHD</t>
-  </si>
-  <si>
-    <t>ING. FÉLIX FERNÁNDEZ, PHD</t>
-  </si>
-  <si>
     <t>Introducción</t>
   </si>
   <si>
@@ -140,9 +119,6 @@
     <t>Técnicas estadísticas para el procesamiento de datos obtenidos</t>
   </si>
   <si>
-    <t>Presentación de resultados</t>
-  </si>
-  <si>
     <t>Hallazgos fundamentales</t>
   </si>
   <si>
@@ -153,6 +129,147 @@
   </si>
   <si>
     <t>Trabajos futuros</t>
+  </si>
+  <si>
+    <t>Elaboración de la introducción</t>
+  </si>
+  <si>
+    <t>Elaboración de los antecedentes históricos</t>
+  </si>
+  <si>
+    <t>Elaboración de los antecedentes conceptuales</t>
+  </si>
+  <si>
+    <t>Elaboración de los antecedentes contextuales</t>
+  </si>
+  <si>
+    <t>Selección de los DLT</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Diagramas arquitectónicos del proyecto</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Vistas lógicas, proceso, física etc</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Códigos de programación</t>
+  </si>
+  <si>
+    <t>Códigos de programación relevantes</t>
+  </si>
+  <si>
+    <t>Fecha actual: 09-11-2021</t>
+  </si>
+  <si>
+    <t>Establecimiento del tipo de estudio</t>
+  </si>
+  <si>
+    <t>Selección de la población y muestra</t>
+  </si>
+  <si>
+    <t>Establecimiento del paradigma</t>
+  </si>
+  <si>
+    <t>Selección de los métodos teóricos</t>
+  </si>
+  <si>
+    <t>Selección de los métodos empíricos</t>
+  </si>
+  <si>
+    <t>Selección de técnicas estadísticas</t>
+  </si>
+  <si>
+    <t>Informe de introducción</t>
+  </si>
+  <si>
+    <t>Informe de antecedentes históricos</t>
+  </si>
+  <si>
+    <t>Informe de antecedentes conceptuales</t>
+  </si>
+  <si>
+    <t>Informe de antecedentes contextuales</t>
+  </si>
+  <si>
+    <t>Informe de tipo de estudio</t>
+  </si>
+  <si>
+    <t>Informe de paradigma seleccionado</t>
+  </si>
+  <si>
+    <t>Datos estadísticos de la plataforma Pagar es Fácil</t>
+  </si>
+  <si>
+    <t>Informe de métodos teóricos utilizados</t>
+  </si>
+  <si>
+    <t>Informe de métodos empíricos utilizados</t>
+  </si>
+  <si>
+    <t>Informe de técnicas estadísticas utilizadas</t>
+  </si>
+  <si>
+    <t>DLT que se utilizarán</t>
+  </si>
+  <si>
+    <t>Informe de DLT seleccionados</t>
+  </si>
+  <si>
+    <t>Diagramas arquitectónicos</t>
+  </si>
+  <si>
+    <t>Elaboración de los diagramas arquitectónicos</t>
+  </si>
+  <si>
+    <t>Elaboración de las vistas</t>
+  </si>
+  <si>
+    <t>Imágenes de las vistas elaboradas</t>
+  </si>
+  <si>
+    <t>Porciones de códigos de programación utilizados</t>
+  </si>
+  <si>
+    <t>Resultado de la investigación</t>
+  </si>
+  <si>
+    <t>Cuadros estadísticos de los resultados</t>
+  </si>
+  <si>
+    <t>Informe de relación con trabajos previos</t>
+  </si>
+  <si>
+    <t>Informe de trabajos futuros</t>
+  </si>
+  <si>
+    <t>Elaboración de la relación con trabajos previos</t>
+  </si>
+  <si>
+    <t>Elaboración de conclusiones y recomendaciones</t>
+  </si>
+  <si>
+    <t>Informe de conclusiones y recomendaciones</t>
+  </si>
+  <si>
+    <t>Elaboración de la sección de trabajos futuros</t>
+  </si>
+  <si>
+    <t>Ing. Dixys Hernández, PHD</t>
+  </si>
+  <si>
+    <t>Ing. Félix Fernández, PHD</t>
+  </si>
+  <si>
+    <t>Ing. Fernando Castillo</t>
   </si>
 </sst>
 </file>
@@ -272,12 +389,12 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Roboto"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +425,14 @@
         <bgColor rgb="FF73C79E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF73C79E"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -371,11 +494,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -455,58 +598,98 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,19 +1049,22 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -915,56 +1101,56 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -979,26 +1165,26 @@
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1016,52 +1202,52 @@
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="42" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
@@ -1069,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1078,13 +1264,13 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="20">
         <v>43101</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D16" s="22">
         <v>44473</v>
@@ -1099,16 +1285,20 @@
       <c r="G16" s="24">
         <v>1</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="20">
         <v>43132</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D17" s="22">
         <v>44480</v>
@@ -1123,16 +1313,20 @@
       <c r="G17" s="24">
         <v>1</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="20">
         <v>43160</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D18" s="22">
         <v>44487</v>
@@ -1141,22 +1335,26 @@
         <v>44493</v>
       </c>
       <c r="F18" s="23">
-        <f t="shared" si="0"/>
+        <f>DAYS360(D18,E18)</f>
         <v>6</v>
       </c>
       <c r="G18" s="25">
         <v>1</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="20">
         <v>43191</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D19" s="22">
         <v>44494</v>
@@ -1171,8 +1369,12 @@
       <c r="G19" s="24">
         <v>1</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="H19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
@@ -1180,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -1189,123 +1391,173 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
-      <c r="B21" s="20">
+      <c r="B21" s="46">
         <v>43102</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="48">
+        <v>44508</v>
+      </c>
+      <c r="E21" s="48">
+        <v>44514</v>
+      </c>
+      <c r="F21" s="49">
+        <f>DAYS360(D21,E21)</f>
+        <v>6</v>
+      </c>
+      <c r="G21" s="50">
+        <v>0</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="51">
+        <v>43133</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="53">
+        <v>44515</v>
+      </c>
+      <c r="E22" s="53">
+        <v>44521</v>
+      </c>
+      <c r="F22" s="54">
+        <f>DAYS360(D22,E22)</f>
+        <v>6</v>
+      </c>
+      <c r="G22" s="55">
+        <v>0</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="51">
+        <v>43161</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="53">
+        <v>44522</v>
+      </c>
+      <c r="E23" s="53">
+        <v>44528</v>
+      </c>
+      <c r="F23" s="54">
+        <f t="shared" ref="F23" si="1">DAYS360(D23,E23)</f>
+        <v>6</v>
+      </c>
+      <c r="G23" s="55">
+        <v>0</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="51">
+        <v>43192</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="53">
+        <v>44529</v>
+      </c>
+      <c r="E24" s="53">
+        <v>44535</v>
+      </c>
+      <c r="F24" s="54">
+        <f>DAYS360(D24,E24)</f>
+        <v>6</v>
+      </c>
+      <c r="G24" s="57">
+        <v>0</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="27" customFormat="1" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
+      <c r="B25" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="48">
+        <v>44536</v>
+      </c>
+      <c r="E25" s="48">
+        <v>44542</v>
+      </c>
+      <c r="F25" s="54">
+        <f>DAYS360(D25,E25)</f>
+        <v>6</v>
+      </c>
+      <c r="G25" s="56">
+        <v>0</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="27" customFormat="1" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23">
-        <f t="shared" ref="F21:F24" si="1">DAYS360(D21,E21)</f>
+      <c r="D26" s="53">
+        <v>44543</v>
+      </c>
+      <c r="E26" s="53">
+        <v>44561</v>
+      </c>
+      <c r="F26" s="54">
+        <f>DAYS360(D26,E26)</f>
+        <v>18</v>
+      </c>
+      <c r="G26" s="57">
         <v>0</v>
       </c>
-      <c r="G21" s="24">
-        <v>0</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="1:9" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20">
-        <v>43133</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="24">
-        <v>0</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20">
-        <v>43161</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="24">
-        <v>0</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20">
-        <v>43192</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="25">
-        <v>0</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" s="28" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46">
-        <v>0</v>
-      </c>
-      <c r="G25" s="47">
-        <v>0</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-    </row>
-    <row r="26" spans="1:9" s="28" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46">
-        <v>0</v>
-      </c>
-      <c r="G26" s="47">
-        <v>0</v>
-      </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="H26" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
@@ -1313,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -1322,182 +1574,339 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
-      <c r="B28" s="20">
+      <c r="B28" s="46">
         <v>43103</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23">
+      <c r="C28" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="48">
+        <v>44564</v>
+      </c>
+      <c r="E28" s="48">
+        <v>44570</v>
+      </c>
+      <c r="F28" s="49">
+        <f>DAYS360(D28,E28)</f>
+        <v>6</v>
+      </c>
+      <c r="G28" s="50">
         <v>0</v>
       </c>
-      <c r="G28" s="24">
+      <c r="H28" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="28" customFormat="1" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="48">
+        <v>44571</v>
+      </c>
+      <c r="E29" s="48">
+        <v>44577</v>
+      </c>
+      <c r="F29" s="49">
+        <f>DAYS360(D29,E29)</f>
+        <v>6</v>
+      </c>
+      <c r="G29" s="50">
         <v>0</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="15">
+      <c r="H29" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="28" customFormat="1" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="48">
+        <v>44578</v>
+      </c>
+      <c r="E30" s="48">
+        <v>44584</v>
+      </c>
+      <c r="F30" s="49">
+        <f>DAYS360(D30,E30)</f>
+        <v>6</v>
+      </c>
+      <c r="G30" s="50">
+        <v>0</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="28" customFormat="1" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="53">
+        <v>44585</v>
+      </c>
+      <c r="E31" s="53">
+        <v>44605</v>
+      </c>
+      <c r="F31" s="54">
+        <f>DAYS360(D31,E31)</f>
+        <v>19</v>
+      </c>
+      <c r="G31" s="55">
+        <v>0</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="15">
         <v>4</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20">
-        <v>43104</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23">
-        <v>0</v>
-      </c>
-      <c r="G30" s="24">
-        <v>0</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20">
-        <v>43135</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23">
-        <v>0</v>
-      </c>
-      <c r="G31" s="24">
-        <v>0</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-    </row>
-    <row r="32" spans="1:9" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20">
-        <v>43163</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23">
-        <v>0</v>
-      </c>
-      <c r="G32" s="24">
-        <v>0</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="20">
+        <v>43104</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="22">
+        <v>44606</v>
+      </c>
+      <c r="E33" s="22">
+        <v>44626</v>
+      </c>
+      <c r="F33" s="23">
+        <f>DAYS360(D33,E33)</f>
+        <v>22</v>
+      </c>
+      <c r="G33" s="24">
+        <v>0</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20">
+        <v>43135</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="22">
+        <v>44627</v>
+      </c>
+      <c r="E34" s="22">
+        <v>44633</v>
+      </c>
+      <c r="F34" s="23">
+        <f t="shared" ref="F34:F35" si="2">DAYS360(D34,E34)</f>
+        <v>6</v>
+      </c>
+      <c r="G34" s="24">
+        <v>0</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20">
+        <v>43163</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="22">
+        <v>44634</v>
+      </c>
+      <c r="E35" s="22">
+        <v>44640</v>
+      </c>
+      <c r="F35" s="23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G35" s="24">
+        <v>0</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20">
         <v>43194</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23">
+      <c r="C36" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="22">
+        <v>44641</v>
+      </c>
+      <c r="E36" s="22">
+        <v>44647</v>
+      </c>
+      <c r="F36" s="23">
+        <f>DAYS360(D36,E36)</f>
+        <v>6</v>
+      </c>
+      <c r="G36" s="25">
         <v>0</v>
       </c>
-      <c r="G33" s="25">
-        <v>0</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-    </row>
-    <row r="35" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="42"/>
-      <c r="H35" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="41"/>
-    </row>
-    <row r="36" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="H36" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="35"/>
+      <c r="H36" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="28" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="1:9" s="28" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+    </row>
+    <row r="39" spans="1:9" s="28" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+    </row>
+    <row r="42" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D42:G42"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
-  <conditionalFormatting sqref="H29:I29 G21:G33 G16:G19 H27:I27">
+  <conditionalFormatting sqref="H32:I32 G16:G19 H27:I27 G21:G39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1507,7 +1916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:I29 G21:G33 G16:G19 H27:I27">
+  <conditionalFormatting sqref="H32:I32 G16:G19 H27:I27 G21:G39">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1518,7 +1927,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>